--- a/testData/EmployeeList.xlsx
+++ b/testData/EmployeeList.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\newJavaEgitimi\Selenium\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E804A319-2A0D-482A-B958-FE6D4C9609FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0873B66-94B4-4582-84BE-067808945577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39570" yWindow="4620" windowWidth="16365" windowHeight="9420" xr2:uid="{1097E286-CC9F-4183-A43E-718137EF1246}"/>
+    <workbookView xWindow="47865" yWindow="-1215" windowWidth="16365" windowHeight="9420" xr2:uid="{1097E286-CC9F-4183-A43E-718137EF1246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Firstname</t>
   </si>
@@ -88,6 +89,18 @@
   </si>
   <si>
     <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Seniority Level</t>
+  </si>
+  <si>
+    <t>Mid-Level</t>
+  </si>
+  <si>
+    <t>Entry Level</t>
+  </si>
+  <si>
+    <t>Senior Level</t>
   </si>
 </sst>
 </file>
@@ -455,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E756BD2-398B-4F9A-99E5-788D56818C62}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G5" sqref="A5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +482,7 @@
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -488,8 +501,11 @@
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -508,8 +524,11 @@
       <c r="F2" s="1">
         <v>105000</v>
       </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -528,8 +547,11 @@
       <c r="F3" s="1">
         <v>90000</v>
       </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -547,9 +569,24 @@
       </c>
       <c r="F4" s="1">
         <v>120000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>